--- a/data/trans_dic/P39A1_2023-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P39A1_2023-Clase-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.6825409408607734</v>
+        <v>0.6857467387904973</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.6343498378388065</v>
+        <v>0.6419302195406734</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.6739656755807745</v>
+        <v>0.6789830946689751</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.761112827274942</v>
+        <v>0.7682845609570383</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7139667342292958</v>
+        <v>0.7198727952615406</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7294966695199429</v>
+        <v>0.7294984998607226</v>
       </c>
     </row>
     <row r="7">
@@ -619,10 +619,10 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.7318886916157828</v>
+        <v>0.7318886916157831</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.6204961652309086</v>
+        <v>0.6204961652309087</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.6806530315289893</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.6842364937054048</v>
+        <v>0.6835277082721257</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.5690931076231768</v>
+        <v>0.5760882535898838</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.6498674151222922</v>
+        <v>0.6531929581886878</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7712925198632234</v>
+        <v>0.7736482516468758</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.657305083620188</v>
+        <v>0.6613153213870538</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7111086079724772</v>
+        <v>0.7096349308949129</v>
       </c>
     </row>
     <row r="10">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.6758633525894588</v>
+        <v>0.6758633525894587</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.6534118848925117</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.6276662212999825</v>
+        <v>0.6264922230890794</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.5915252518750282</v>
+        <v>0.5890658936475653</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6306182902047675</v>
+        <v>0.6305581765804508</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7196075035571554</v>
+        <v>0.7194529292186633</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.70793212105521</v>
+        <v>0.7099484777582441</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7036560736733971</v>
+        <v>0.7067325621887051</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.7117741237609124</v>
+        <v>0.7117741237609125</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.6660276062079914</v>
+        <v>0.6660276062079916</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.6918263020717351</v>
+        <v>0.691826302071735</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.6795890726641939</v>
+        <v>0.6806991341363976</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.6344620017299472</v>
+        <v>0.6370904830846741</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.6702080203672325</v>
+        <v>0.6705405397430092</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7393454817373722</v>
+        <v>0.7402370946247093</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.6945976330049516</v>
+        <v>0.6949666115323899</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7116242859699825</v>
+        <v>0.7139632254106546</v>
       </c>
     </row>
     <row r="16">
@@ -787,7 +787,7 @@
         <v>0.701486151308648</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.6806961941633186</v>
+        <v>0.6806961941633185</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.6889526483397413</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.6554197086227813</v>
+        <v>0.6547652467380134</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.6536669840080797</v>
+        <v>0.6520759087556706</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.6650339587655524</v>
+        <v>0.6634909745901097</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.7456964140931609</v>
+        <v>0.7424115741243523</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.7082321608310216</v>
+        <v>0.7086728091701566</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.7123530717185942</v>
+        <v>0.7142852008736701</v>
       </c>
     </row>
     <row r="19">
@@ -845,7 +845,7 @@
         <v>0.7471332370912112</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.7484831792163391</v>
+        <v>0.748483179216339</v>
       </c>
     </row>
     <row r="20">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.6474147132804803</v>
+        <v>0.6350842529270179</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.7123180849952797</v>
+        <v>0.7163614676767479</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.7176453244593796</v>
+        <v>0.7119333620808704</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.838200179140363</v>
+        <v>0.8384595319058842</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.7760930329088077</v>
+        <v>0.777391207905729</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.7813518712501678</v>
+        <v>0.7756433096279907</v>
       </c>
     </row>
     <row r="22">
@@ -894,13 +894,13 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.713421125403123</v>
+        <v>0.7134211254031231</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>0.6826425009267896</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.6976828281488614</v>
+        <v>0.6976828281488613</v>
       </c>
     </row>
     <row r="23">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.6952547067635553</v>
+        <v>0.6947274951870964</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.66704911526417</v>
+        <v>0.6684237580008385</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.6856094656298147</v>
+        <v>0.6862710000121272</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.7303320057091721</v>
+        <v>0.7316292206707842</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.6969643855400354</v>
+        <v>0.6962211803496421</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.7092631304711612</v>
+        <v>0.7088068584750888</v>
       </c>
     </row>
     <row r="25">
@@ -1078,13 +1078,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>358697</v>
+        <v>360382</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>293905</v>
+        <v>297417</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>666450</v>
+        <v>671412</v>
       </c>
     </row>
     <row r="7">
@@ -1095,13 +1095,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>399989</v>
+        <v>403758</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>330793</v>
+        <v>333529</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>721362</v>
+        <v>721364</v>
       </c>
     </row>
     <row r="8">
@@ -1150,13 +1150,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>318242</v>
+        <v>317912</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>225435</v>
+        <v>228206</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>559689</v>
+        <v>562553</v>
       </c>
     </row>
     <row r="11">
@@ -1167,13 +1167,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>358732</v>
+        <v>359828</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>260378</v>
+        <v>261967</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>612432</v>
+        <v>611162</v>
       </c>
     </row>
     <row r="12">
@@ -1222,13 +1222,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>273681</v>
+        <v>273169</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>100934</v>
+        <v>100514</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>382572</v>
+        <v>382536</v>
       </c>
     </row>
     <row r="15">
@@ -1239,13 +1239,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>313770</v>
+        <v>313702</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>120797</v>
+        <v>121141</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>426881</v>
+        <v>428748</v>
       </c>
     </row>
     <row r="16">
@@ -1294,13 +1294,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>705305</v>
+        <v>706457</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>509136</v>
+        <v>511245</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1233391</v>
+        <v>1234002</v>
       </c>
     </row>
     <row r="19">
@@ -1311,13 +1311,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>767323</v>
+        <v>768248</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>557393</v>
+        <v>557689</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1309609</v>
+        <v>1313914</v>
       </c>
     </row>
     <row r="20">
@@ -1366,13 +1366,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>308199</v>
+        <v>307892</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>466603</v>
+        <v>465467</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>787437</v>
+        <v>785610</v>
       </c>
     </row>
     <row r="23">
@@ -1383,13 +1383,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>350650</v>
+        <v>349106</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>505553</v>
+        <v>505868</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>843466</v>
+        <v>845754</v>
       </c>
     </row>
     <row r="24">
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>126972</v>
+        <v>124554</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>519836</v>
+        <v>522787</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>664470</v>
+        <v>659181</v>
       </c>
     </row>
     <row r="27">
@@ -1455,13 +1455,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>164389</v>
+        <v>164440</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>566378</v>
+        <v>567325</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>723456</v>
+        <v>718170</v>
       </c>
     </row>
     <row r="28">
@@ -1510,13 +1510,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>2176746</v>
+        <v>2175095</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>2185356</v>
+        <v>2189859</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>4392710</v>
+        <v>4396949</v>
       </c>
     </row>
     <row r="31">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>2286568</v>
+        <v>2290629</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>2283363</v>
+        <v>2280928</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>4544260</v>
+        <v>4541336</v>
       </c>
     </row>
     <row r="32">
